--- a/WekaData/Neural Network Data Results.xlsx
+++ b/WekaData/Neural Network Data Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lorit\Documents\spring2019\cs4641\Randomized Optimization\ABAGAIL\src\opt\test\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lorit\Documents\spring2019\cs4641\Randomized Optimization\ABAGAIL\WekaData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004B0830-7B19-4E55-A9C4-F0CF3A3BC2E4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1075A4FD-39DB-4829-A53A-896862646E7A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{6B73B556-0165-41A6-9F74-036F8DD70380}"/>
+    <workbookView xWindow="1368" yWindow="1344" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{6B73B556-0165-41A6-9F74-036F8DD70380}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="25">
   <si>
     <t>Train Score</t>
   </si>
@@ -73,16 +73,34 @@
     <t>13.24s</t>
   </si>
   <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>Number of hidden layers</t>
-  </si>
-  <si>
     <t>train time at 19 nodes in hidden layer</t>
   </si>
   <si>
     <t>train time at 100 nodes in hidden layer</t>
+  </si>
+  <si>
+    <t>Number of Hidden Layers</t>
+  </si>
+  <si>
+    <t>9.37 seconds</t>
+  </si>
+  <si>
+    <t>2.4 seconds</t>
+  </si>
+  <si>
+    <t>training time</t>
+  </si>
+  <si>
+    <t>1 layer</t>
+  </si>
+  <si>
+    <t>3 layers</t>
+  </si>
+  <si>
+    <t>6.09 seconds</t>
+  </si>
+  <si>
+    <t>2 layers</t>
   </si>
 </sst>
 </file>
@@ -118,8 +136,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1374,26 +1395,29 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$A$39:$A$44</c:f>
+              <c:f>Sheet2!$A$39:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
@@ -1401,26 +1425,29 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$39:$B$44</c:f>
+              <c:f>Sheet2!$B$39:$B$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>75.871300000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>81.680099999999996</c:v>
+                  <c:v>84.718500000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>81.322599999999994</c:v>
+                  <c:v>84.361000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>52.546900000000001</c:v>
+                  <c:v>83.199299999999994</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>52.546900000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>52.546900000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>52.546900000000001</c:v>
                 </c:pt>
               </c:numCache>
@@ -1453,26 +1480,29 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$A$39:$A$44</c:f>
+              <c:f>Sheet2!$A$39:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
@@ -1480,26 +1510,29 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$C$39:$C$44</c:f>
+              <c:f>Sheet2!$C$39:$C$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>73.369100000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75.513900000000007</c:v>
+                  <c:v>74.084000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>74.620199999999997</c:v>
+                  <c:v>75.156400000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>75.692599999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54.155500000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>50.491500000000002</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>50.491500000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>50.491500000000002</c:v>
                 </c:pt>
               </c:numCache>
@@ -1532,26 +1565,29 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$A$39:$A$44</c:f>
+              <c:f>Sheet2!$A$39:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
@@ -1559,26 +1595,29 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$D$39:$D$44</c:f>
+              <c:f>Sheet2!$D$39:$D$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>74.791700000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75.625</c:v>
+                  <c:v>77.291700000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75.416700000000006</c:v>
+                  <c:v>73.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>55.625</c:v>
+                  <c:v>74.375</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>55.625</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>55.625</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>55.625</c:v>
                 </c:pt>
               </c:numCache>
@@ -1607,7 +1646,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
-          <c:min val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -4574,10 +4613,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC4C31A2-AE1C-4EC2-A4C7-507B6CFDF635}">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4801,7 +4840,7 @@
         <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -4821,7 +4860,7 @@
         <v>14</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -5077,14 +5116,14 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>16</v>
-      </c>
+      <c r="A37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>15</v>
-      </c>
       <c r="B38" t="s">
         <v>0</v>
       </c>
@@ -5097,7 +5136,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B39">
         <v>75.871300000000005</v>
@@ -5114,16 +5153,16 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B40">
-        <v>81.680099999999996</v>
+        <v>84.718500000000006</v>
       </c>
       <c r="C40">
-        <v>75.513900000000007</v>
+        <v>74.084000000000003</v>
       </c>
       <c r="D40">
-        <v>75.625</v>
+        <v>77.291700000000006</v>
       </c>
       <c r="E40">
         <v>2</v>
@@ -5131,16 +5170,16 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B41">
-        <v>81.322599999999994</v>
+        <v>84.361000000000004</v>
       </c>
       <c r="C41">
-        <v>74.620199999999997</v>
+        <v>75.156400000000005</v>
       </c>
       <c r="D41">
-        <v>75.416700000000006</v>
+        <v>73.75</v>
       </c>
       <c r="E41">
         <v>3</v>
@@ -5148,16 +5187,16 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B42">
-        <v>52.546900000000001</v>
+        <v>83.199299999999994</v>
       </c>
       <c r="C42">
-        <v>50.491500000000002</v>
+        <v>75.692599999999999</v>
       </c>
       <c r="D42">
-        <v>55.625</v>
+        <v>74.375</v>
       </c>
       <c r="E42">
         <v>4</v>
@@ -5165,13 +5204,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B43">
         <v>52.546900000000001</v>
       </c>
       <c r="C43">
-        <v>50.491500000000002</v>
+        <v>54.155500000000004</v>
       </c>
       <c r="D43">
         <v>55.625</v>
@@ -5182,7 +5221,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B44">
         <v>52.546900000000001</v>
@@ -5197,7 +5236,53 @@
         <v>6</v>
       </c>
     </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>6</v>
+      </c>
+      <c r="B45">
+        <v>52.546900000000001</v>
+      </c>
+      <c r="C45">
+        <v>50.491500000000002</v>
+      </c>
+      <c r="D45">
+        <v>55.625</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A37:D37"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
